--- a/data/download_SZ159555.xlsx
+++ b/data/download_SZ159555.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F288"/>
+  <dimension ref="A1:F289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7353,6 +7353,30 @@
         <v>1.18</v>
       </c>
     </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>20250224</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>SZ159555</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>1.207</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1.199</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1.212</v>
+      </c>
+      <c r="F289" t="n">
+        <v>1.191</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SZ159555.xlsx
+++ b/data/download_SZ159555.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F289"/>
+  <dimension ref="A1:F293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7377,6 +7377,102 @@
         <v>1.191</v>
       </c>
     </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>20250225</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>SZ159555</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>1.207</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1.196</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1.219</v>
+      </c>
+      <c r="F290" t="n">
+        <v>1.183</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>20250226</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>SZ159555</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>1.228</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1.207</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F291" t="n">
+        <v>1.202</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>20250227</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>SZ159555</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>1.223</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1.228</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1.238</v>
+      </c>
+      <c r="F292" t="n">
+        <v>1.203</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>20250228</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>SZ159555</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>1.194</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1.211</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1.216</v>
+      </c>
+      <c r="F293" t="n">
+        <v>1.192</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
